--- a/board/ErrorNote.xlsx
+++ b/board/ErrorNote.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,6 +616,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
@@ -700,15 +709,6 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
